--- a/Team-Data/2014-15/1-22-2014-15.xlsx
+++ b/Team-Data/2014-15/1-22-2014-15.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -744,7 +811,7 @@
         <v>7.1</v>
       </c>
       <c r="AD2" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE2" t="n">
         <v>1</v>
@@ -765,7 +832,7 @@
         <v>27</v>
       </c>
       <c r="AK2" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AL2" t="n">
         <v>5</v>
@@ -777,7 +844,7 @@
         <v>2</v>
       </c>
       <c r="AO2" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AP2" t="n">
         <v>17</v>
@@ -789,7 +856,7 @@
         <v>29</v>
       </c>
       <c r="AS2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AT2" t="n">
         <v>25</v>
@@ -816,7 +883,7 @@
         <v>10</v>
       </c>
       <c r="BB2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BC2" t="n">
         <v>2</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F3" t="n">
         <v>26</v>
       </c>
       <c r="G3" t="n">
-        <v>0.35</v>
+        <v>0.333</v>
       </c>
       <c r="H3" t="n">
         <v>48.6</v>
@@ -875,16 +942,16 @@
         <v>7.5</v>
       </c>
       <c r="M3" t="n">
-        <v>23.1</v>
+        <v>23.2</v>
       </c>
       <c r="N3" t="n">
         <v>0.326</v>
       </c>
       <c r="O3" t="n">
-        <v>14.8</v>
+        <v>15</v>
       </c>
       <c r="P3" t="n">
-        <v>19.5</v>
+        <v>19.8</v>
       </c>
       <c r="Q3" t="n">
         <v>0.758</v>
@@ -893,16 +960,16 @@
         <v>10.7</v>
       </c>
       <c r="S3" t="n">
-        <v>32.7</v>
+        <v>32.6</v>
       </c>
       <c r="T3" t="n">
-        <v>43.4</v>
+        <v>43.3</v>
       </c>
       <c r="U3" t="n">
-        <v>25.2</v>
+        <v>25.3</v>
       </c>
       <c r="V3" t="n">
-        <v>14.7</v>
+        <v>14.6</v>
       </c>
       <c r="W3" t="n">
         <v>8.1</v>
@@ -914,19 +981,19 @@
         <v>5.6</v>
       </c>
       <c r="Z3" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA3" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.8</v>
+        <v>102.1</v>
       </c>
       <c r="AC3" t="n">
-        <v>-2</v>
+        <v>-2.1</v>
       </c>
       <c r="AD3" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AE3" t="n">
         <v>26</v>
@@ -935,7 +1002,7 @@
         <v>21</v>
       </c>
       <c r="AG3" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AH3" t="n">
         <v>6</v>
@@ -962,25 +1029,25 @@
         <v>28</v>
       </c>
       <c r="AP3" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AQ3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AR3" t="n">
+        <v>16</v>
+      </c>
+      <c r="AS3" t="n">
+        <v>13</v>
+      </c>
+      <c r="AT3" t="n">
         <v>14</v>
-      </c>
-      <c r="AR3" t="n">
-        <v>17</v>
-      </c>
-      <c r="AS3" t="n">
-        <v>12</v>
-      </c>
-      <c r="AT3" t="n">
-        <v>13</v>
       </c>
       <c r="AU3" t="n">
         <v>3</v>
       </c>
       <c r="AV3" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AW3" t="n">
         <v>10</v>
@@ -989,7 +1056,7 @@
         <v>25</v>
       </c>
       <c r="AY3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AZ3" t="n">
         <v>20</v>
@@ -1001,7 +1068,7 @@
         <v>10</v>
       </c>
       <c r="BC3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -1030,37 +1097,37 @@
         </is>
       </c>
       <c r="D4" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E4" t="n">
         <v>18</v>
       </c>
       <c r="F4" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G4" t="n">
-        <v>0.419</v>
+        <v>0.429</v>
       </c>
       <c r="H4" t="n">
         <v>48.6</v>
       </c>
       <c r="I4" t="n">
-        <v>36.1</v>
+        <v>36.2</v>
       </c>
       <c r="J4" t="n">
-        <v>81.2</v>
+        <v>81</v>
       </c>
       <c r="K4" t="n">
-        <v>0.445</v>
+        <v>0.447</v>
       </c>
       <c r="L4" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M4" t="n">
         <v>20.9</v>
       </c>
       <c r="N4" t="n">
-        <v>0.317</v>
+        <v>0.32</v>
       </c>
       <c r="O4" t="n">
         <v>16.6</v>
@@ -1069,58 +1136,58 @@
         <v>22.1</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.749</v>
+        <v>0.754</v>
       </c>
       <c r="R4" t="n">
-        <v>9.699999999999999</v>
+        <v>9.6</v>
       </c>
       <c r="S4" t="n">
-        <v>32.3</v>
+        <v>32.5</v>
       </c>
       <c r="T4" t="n">
         <v>42.1</v>
       </c>
       <c r="U4" t="n">
-        <v>20.5</v>
+        <v>20.6</v>
       </c>
       <c r="V4" t="n">
         <v>14.6</v>
       </c>
       <c r="W4" t="n">
-        <v>7.2</v>
+        <v>7.1</v>
       </c>
       <c r="X4" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y4" t="n">
-        <v>4.7</v>
+        <v>4.5</v>
       </c>
       <c r="Z4" t="n">
-        <v>20.1</v>
+        <v>20.3</v>
       </c>
       <c r="AA4" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB4" t="n">
-        <v>95.5</v>
+        <v>95.7</v>
       </c>
       <c r="AC4" t="n">
-        <v>-3</v>
+        <v>-2.1</v>
       </c>
       <c r="AD4" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE4" t="n">
         <v>17</v>
       </c>
       <c r="AF4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AG4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AH4" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AI4" t="n">
         <v>24</v>
@@ -1129,7 +1196,7 @@
         <v>25</v>
       </c>
       <c r="AK4" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AL4" t="n">
         <v>24</v>
@@ -1147,7 +1214,7 @@
         <v>21</v>
       </c>
       <c r="AQ4" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AR4" t="n">
         <v>26</v>
@@ -1159,13 +1226,13 @@
         <v>21</v>
       </c>
       <c r="AU4" t="n">
+        <v>22</v>
+      </c>
+      <c r="AV4" t="n">
+        <v>17</v>
+      </c>
+      <c r="AW4" t="n">
         <v>23</v>
-      </c>
-      <c r="AV4" t="n">
-        <v>15</v>
-      </c>
-      <c r="AW4" t="n">
-        <v>21</v>
       </c>
       <c r="AX4" t="n">
         <v>24</v>
@@ -1180,10 +1247,10 @@
         <v>19</v>
       </c>
       <c r="BB4" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="BC4" t="n">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="BD4" t="n">
         <v>10</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -1290,16 +1357,16 @@
         <v>-2</v>
       </c>
       <c r="AD5" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE5" t="n">
         <v>17</v>
       </c>
       <c r="AF5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AG5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AH5" t="n">
         <v>3</v>
@@ -1323,7 +1390,7 @@
         <v>29</v>
       </c>
       <c r="AO5" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AP5" t="n">
         <v>14</v>
@@ -1332,13 +1399,13 @@
         <v>27</v>
       </c>
       <c r="AR5" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AS5" t="n">
         <v>7</v>
       </c>
       <c r="AT5" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AU5" t="n">
         <v>27</v>
@@ -1353,10 +1420,10 @@
         <v>9</v>
       </c>
       <c r="AY5" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AZ5" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E6" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F6" t="n">
         <v>16</v>
       </c>
       <c r="G6" t="n">
-        <v>0.636</v>
+        <v>0.628</v>
       </c>
       <c r="H6" t="n">
         <v>48.5</v>
@@ -1412,46 +1479,46 @@
         <v>36.7</v>
       </c>
       <c r="J6" t="n">
-        <v>82.40000000000001</v>
+        <v>82.5</v>
       </c>
       <c r="K6" t="n">
-        <v>0.446</v>
+        <v>0.445</v>
       </c>
       <c r="L6" t="n">
-        <v>7.7</v>
+        <v>7.8</v>
       </c>
       <c r="M6" t="n">
-        <v>21.2</v>
+        <v>21.3</v>
       </c>
       <c r="N6" t="n">
-        <v>0.364</v>
+        <v>0.365</v>
       </c>
       <c r="O6" t="n">
-        <v>21</v>
+        <v>20.9</v>
       </c>
       <c r="P6" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.781</v>
+        <v>0.78</v>
       </c>
       <c r="R6" t="n">
-        <v>11.8</v>
+        <v>11.9</v>
       </c>
       <c r="S6" t="n">
-        <v>33.5</v>
+        <v>33.4</v>
       </c>
       <c r="T6" t="n">
         <v>45.3</v>
       </c>
       <c r="U6" t="n">
-        <v>21.6</v>
+        <v>21.7</v>
       </c>
       <c r="V6" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W6" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="X6" t="n">
         <v>6.7</v>
@@ -1460,22 +1527,22 @@
         <v>5.3</v>
       </c>
       <c r="Z6" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA6" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>102.2</v>
+        <v>102.1</v>
       </c>
       <c r="AC6" t="n">
-        <v>2.9</v>
+        <v>2.4</v>
       </c>
       <c r="AD6" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE6" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AF6" t="n">
         <v>10</v>
@@ -1484,7 +1551,7 @@
         <v>10</v>
       </c>
       <c r="AH6" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AI6" t="n">
         <v>21</v>
@@ -1493,7 +1560,7 @@
         <v>18</v>
       </c>
       <c r="AK6" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AL6" t="n">
         <v>12</v>
@@ -1514,7 +1581,7 @@
         <v>3</v>
       </c>
       <c r="AR6" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AS6" t="n">
         <v>8</v>
@@ -1538,7 +1605,7 @@
         <v>20</v>
       </c>
       <c r="AZ6" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BA6" t="n">
         <v>2</v>
@@ -1547,7 +1614,7 @@
         <v>9</v>
       </c>
       <c r="BC6" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -1654,7 +1721,7 @@
         <v>0.7</v>
       </c>
       <c r="AD7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE7" t="n">
         <v>13</v>
@@ -1666,7 +1733,7 @@
         <v>13</v>
       </c>
       <c r="AH7" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AI7" t="n">
         <v>19</v>
@@ -1678,7 +1745,7 @@
         <v>15</v>
       </c>
       <c r="AL7" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AM7" t="n">
         <v>10</v>
@@ -1690,10 +1757,10 @@
         <v>6</v>
       </c>
       <c r="AP7" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AQ7" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AR7" t="n">
         <v>12</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -1758,16 +1825,16 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E8" t="n">
         <v>30</v>
       </c>
       <c r="F8" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="G8" t="n">
-        <v>0.714</v>
+        <v>0.698</v>
       </c>
       <c r="H8" t="n">
         <v>48.6</v>
@@ -1776,16 +1843,16 @@
         <v>40.7</v>
       </c>
       <c r="J8" t="n">
-        <v>86.5</v>
+        <v>86.3</v>
       </c>
       <c r="K8" t="n">
         <v>0.471</v>
       </c>
       <c r="L8" t="n">
-        <v>9.6</v>
+        <v>9.5</v>
       </c>
       <c r="M8" t="n">
-        <v>26.9</v>
+        <v>26.8</v>
       </c>
       <c r="N8" t="n">
         <v>0.356</v>
@@ -1794,28 +1861,28 @@
         <v>17.3</v>
       </c>
       <c r="P8" t="n">
-        <v>22.8</v>
+        <v>22.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.759</v>
+        <v>0.76</v>
       </c>
       <c r="R8" t="n">
-        <v>10.8</v>
+        <v>10.7</v>
       </c>
       <c r="S8" t="n">
-        <v>31.8</v>
+        <v>31.7</v>
       </c>
       <c r="T8" t="n">
-        <v>42.6</v>
+        <v>42.4</v>
       </c>
       <c r="U8" t="n">
-        <v>23.7</v>
+        <v>23.5</v>
       </c>
       <c r="V8" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="W8" t="n">
-        <v>7.9</v>
+        <v>8</v>
       </c>
       <c r="X8" t="n">
         <v>4.8</v>
@@ -1830,25 +1897,25 @@
         <v>22.2</v>
       </c>
       <c r="AB8" t="n">
-        <v>108.3</v>
+        <v>108.1</v>
       </c>
       <c r="AC8" t="n">
-        <v>6.6</v>
+        <v>6.4</v>
       </c>
       <c r="AD8" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AE8" t="n">
         <v>4</v>
       </c>
       <c r="AF8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AG8" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AH8" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AI8" t="n">
         <v>2</v>
@@ -1857,7 +1924,7 @@
         <v>3</v>
       </c>
       <c r="AK8" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AL8" t="n">
         <v>7</v>
@@ -1869,22 +1936,22 @@
         <v>11</v>
       </c>
       <c r="AO8" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AP8" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AR8" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AS8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AT8" t="n">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="AU8" t="n">
         <v>7</v>
@@ -1896,7 +1963,7 @@
         <v>11</v>
       </c>
       <c r="AX8" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AY8" t="n">
         <v>2</v>
@@ -1911,7 +1978,7 @@
         <v>2</v>
       </c>
       <c r="BC8" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BD8" t="n">
         <v>10</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2039,7 +2106,7 @@
         <v>4</v>
       </c>
       <c r="AK9" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AL9" t="n">
         <v>14</v>
@@ -2090,10 +2157,10 @@
         <v>9</v>
       </c>
       <c r="BB9" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BC9" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="BD9" t="n">
         <v>10</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-1.6</v>
       </c>
       <c r="AD10" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE10" t="n">
         <v>21</v>
@@ -2212,7 +2279,7 @@
         <v>21</v>
       </c>
       <c r="AH10" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI10" t="n">
         <v>22</v>
@@ -2263,10 +2330,10 @@
         <v>17</v>
       </c>
       <c r="AY10" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ10" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA10" t="n">
         <v>23</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2415,7 +2482,7 @@
         <v>1</v>
       </c>
       <c r="AO11" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AP11" t="n">
         <v>22</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2486,46 +2553,46 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E12" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="F12" t="n">
         <v>14</v>
       </c>
       <c r="G12" t="n">
-        <v>0.667</v>
+        <v>0.674</v>
       </c>
       <c r="H12" t="n">
         <v>48.5</v>
       </c>
       <c r="I12" t="n">
-        <v>36.6</v>
+        <v>36.5</v>
       </c>
       <c r="J12" t="n">
-        <v>83.3</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K12" t="n">
-        <v>0.44</v>
+        <v>0.439</v>
       </c>
       <c r="L12" t="n">
         <v>11.8</v>
       </c>
       <c r="M12" t="n">
-        <v>33.6</v>
+        <v>33.5</v>
       </c>
       <c r="N12" t="n">
-        <v>0.352</v>
+        <v>0.354</v>
       </c>
       <c r="O12" t="n">
-        <v>17.6</v>
+        <v>18</v>
       </c>
       <c r="P12" t="n">
-        <v>24.5</v>
+        <v>25.1</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.718</v>
+        <v>0.716</v>
       </c>
       <c r="R12" t="n">
         <v>12.2</v>
@@ -2543,40 +2610,40 @@
         <v>17.5</v>
       </c>
       <c r="W12" t="n">
-        <v>9.9</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="X12" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Y12" t="n">
         <v>5.7</v>
       </c>
       <c r="Z12" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="AA12" t="n">
-        <v>20.5</v>
+        <v>20.8</v>
       </c>
       <c r="AB12" t="n">
-        <v>102.7</v>
+        <v>102.9</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.5</v>
+        <v>3.8</v>
       </c>
       <c r="AD12" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AE12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AF12" t="n">
         <v>6</v>
       </c>
       <c r="AG12" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AH12" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="AI12" t="n">
         <v>23</v>
@@ -2594,13 +2661,13 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO12" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AP12" t="n">
-        <v>10</v>
+        <v>5</v>
       </c>
       <c r="AQ12" t="n">
         <v>28</v>
@@ -2612,7 +2679,7 @@
         <v>22</v>
       </c>
       <c r="AT12" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AU12" t="n">
         <v>17</v>
@@ -2624,22 +2691,22 @@
         <v>2</v>
       </c>
       <c r="AX12" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AY12" t="n">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="AZ12" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="BA12" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="BB12" t="n">
         <v>8</v>
       </c>
       <c r="BC12" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BD12" t="n">
         <v>10</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2746,7 +2813,7 @@
         <v>-2.4</v>
       </c>
       <c r="AD13" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE13" t="n">
         <v>23</v>
@@ -2755,16 +2822,16 @@
         <v>25</v>
       </c>
       <c r="AG13" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AH13" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AI13" t="n">
         <v>26</v>
       </c>
       <c r="AJ13" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AK13" t="n">
         <v>27</v>
@@ -2800,7 +2867,7 @@
         <v>21</v>
       </c>
       <c r="AV13" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW13" t="n">
         <v>29</v>
@@ -2821,7 +2888,7 @@
         <v>27</v>
       </c>
       <c r="BC13" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="BD13" t="n">
         <v>10</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -2850,28 +2917,28 @@
         </is>
       </c>
       <c r="D14" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E14" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F14" t="n">
         <v>14</v>
       </c>
       <c r="G14" t="n">
-        <v>0.674</v>
+        <v>0.667</v>
       </c>
       <c r="H14" t="n">
         <v>48.1</v>
       </c>
       <c r="I14" t="n">
-        <v>39.1</v>
+        <v>38.9</v>
       </c>
       <c r="J14" t="n">
         <v>82.3</v>
       </c>
       <c r="K14" t="n">
-        <v>0.475</v>
+        <v>0.472</v>
       </c>
       <c r="L14" t="n">
         <v>10.2</v>
@@ -2880,28 +2947,28 @@
         <v>26.6</v>
       </c>
       <c r="N14" t="n">
-        <v>0.383</v>
+        <v>0.382</v>
       </c>
       <c r="O14" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="P14" t="n">
-        <v>25</v>
+        <v>25.1</v>
       </c>
       <c r="Q14" t="n">
-        <v>0.749</v>
+        <v>0.751</v>
       </c>
       <c r="R14" t="n">
         <v>8.9</v>
       </c>
       <c r="S14" t="n">
-        <v>32.2</v>
+        <v>32</v>
       </c>
       <c r="T14" t="n">
-        <v>41.1</v>
+        <v>40.9</v>
       </c>
       <c r="U14" t="n">
-        <v>25.1</v>
+        <v>24.7</v>
       </c>
       <c r="V14" t="n">
         <v>12.2</v>
@@ -2910,7 +2977,7 @@
         <v>7.7</v>
       </c>
       <c r="X14" t="n">
-        <v>4.9</v>
+        <v>4.8</v>
       </c>
       <c r="Y14" t="n">
         <v>2.8</v>
@@ -2919,55 +2986,55 @@
         <v>20.5</v>
       </c>
       <c r="AA14" t="n">
-        <v>21.6</v>
+        <v>21.8</v>
       </c>
       <c r="AB14" t="n">
-        <v>107.1</v>
+        <v>106.7</v>
       </c>
       <c r="AC14" t="n">
-        <v>7</v>
+        <v>6.3</v>
       </c>
       <c r="AD14" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AF14" t="n">
         <v>6</v>
       </c>
       <c r="AG14" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AH14" t="n">
         <v>26</v>
       </c>
       <c r="AI14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AJ14" t="n">
         <v>19</v>
       </c>
       <c r="AK14" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AL14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AM14" t="n">
         <v>5</v>
       </c>
       <c r="AN14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AO14" t="n">
         <v>5</v>
       </c>
       <c r="AP14" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AQ14" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AR14" t="n">
         <v>27</v>
@@ -2976,10 +3043,10 @@
         <v>16</v>
       </c>
       <c r="AT14" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU14" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV14" t="n">
         <v>3</v>
@@ -2988,7 +3055,7 @@
         <v>13</v>
       </c>
       <c r="AX14" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AY14" t="n">
         <v>1</v>
@@ -3003,7 +3070,7 @@
         <v>4</v>
       </c>
       <c r="BC14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BD14" t="n">
         <v>10</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3032,58 +3099,58 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="E15" t="n">
         <v>12</v>
       </c>
       <c r="F15" t="n">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="G15" t="n">
-        <v>0.286</v>
+        <v>0.279</v>
       </c>
       <c r="H15" t="n">
-        <v>48.4</v>
+        <v>48.3</v>
       </c>
       <c r="I15" t="n">
-        <v>37.4</v>
+        <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>85.40000000000001</v>
+        <v>85.3</v>
       </c>
       <c r="K15" t="n">
-        <v>0.438</v>
+        <v>0.436</v>
       </c>
       <c r="L15" t="n">
-        <v>7</v>
+        <v>6.9</v>
       </c>
       <c r="M15" t="n">
-        <v>19.9</v>
+        <v>19.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.353</v>
+        <v>0.352</v>
       </c>
       <c r="O15" t="n">
-        <v>18.3</v>
+        <v>18.6</v>
       </c>
       <c r="P15" t="n">
-        <v>24.6</v>
+        <v>25</v>
       </c>
       <c r="Q15" t="n">
-        <v>0.744</v>
+        <v>0.746</v>
       </c>
       <c r="R15" t="n">
         <v>11.5</v>
       </c>
       <c r="S15" t="n">
-        <v>31.7</v>
+        <v>31.5</v>
       </c>
       <c r="T15" t="n">
-        <v>43.1</v>
+        <v>43</v>
       </c>
       <c r="U15" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="V15" t="n">
         <v>13</v>
@@ -3095,22 +3162,22 @@
         <v>4.5</v>
       </c>
       <c r="Y15" t="n">
-        <v>4.5</v>
+        <v>4.4</v>
       </c>
       <c r="Z15" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="AA15" t="n">
-        <v>20</v>
+        <v>20.3</v>
       </c>
       <c r="AB15" t="n">
-        <v>100.1</v>
+        <v>99.90000000000001</v>
       </c>
       <c r="AC15" t="n">
-        <v>-6.3</v>
+        <v>-6.6</v>
       </c>
       <c r="AD15" t="n">
-        <v>16</v>
+        <v>4</v>
       </c>
       <c r="AE15" t="n">
         <v>27</v>
@@ -3122,7 +3189,7 @@
         <v>27</v>
       </c>
       <c r="AH15" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AI15" t="n">
         <v>16</v>
@@ -3131,22 +3198,22 @@
         <v>9</v>
       </c>
       <c r="AK15" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AL15" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="AM15" t="n">
         <v>22</v>
       </c>
       <c r="AN15" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO15" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AP15" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AQ15" t="n">
         <v>20</v>
@@ -3155,19 +3222,19 @@
         <v>11</v>
       </c>
       <c r="AS15" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AT15" t="n">
         <v>15</v>
       </c>
       <c r="AU15" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AV15" t="n">
         <v>6</v>
       </c>
       <c r="AW15" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AX15" t="n">
         <v>19</v>
@@ -3179,7 +3246,7 @@
         <v>19</v>
       </c>
       <c r="BA15" t="n">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="BB15" t="n">
         <v>18</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3301,7 +3368,7 @@
         <v>3</v>
       </c>
       <c r="AG16" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AH16" t="n">
         <v>1</v>
@@ -3325,7 +3392,7 @@
         <v>18</v>
       </c>
       <c r="AO16" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AP16" t="n">
         <v>13</v>
@@ -3334,7 +3401,7 @@
         <v>7</v>
       </c>
       <c r="AR16" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AS16" t="n">
         <v>15</v>
@@ -3358,16 +3425,16 @@
         <v>21</v>
       </c>
       <c r="AZ16" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA16" t="n">
         <v>11</v>
       </c>
       <c r="BB16" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3495,7 +3562,7 @@
         <v>30</v>
       </c>
       <c r="AK17" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AL17" t="n">
         <v>17</v>
@@ -3507,7 +3574,7 @@
         <v>17</v>
       </c>
       <c r="AO17" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AP17" t="n">
         <v>11</v>
@@ -3528,7 +3595,7 @@
         <v>28</v>
       </c>
       <c r="AV17" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AW17" t="n">
         <v>8</v>
@@ -3543,7 +3610,7 @@
         <v>13</v>
       </c>
       <c r="BA17" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BB17" t="n">
         <v>28</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3578,25 +3645,25 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E18" t="n">
         <v>21</v>
       </c>
       <c r="F18" t="n">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G18" t="n">
-        <v>0.5</v>
+        <v>0.512</v>
       </c>
       <c r="H18" t="n">
         <v>48.6</v>
       </c>
       <c r="I18" t="n">
-        <v>37.5</v>
+        <v>37.4</v>
       </c>
       <c r="J18" t="n">
-        <v>81.3</v>
+        <v>81.09999999999999</v>
       </c>
       <c r="K18" t="n">
         <v>0.462</v>
@@ -3605,25 +3672,25 @@
         <v>6.9</v>
       </c>
       <c r="M18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="N18" t="n">
-        <v>0.362</v>
+        <v>0.361</v>
       </c>
       <c r="O18" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P18" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.772</v>
+        <v>0.771</v>
       </c>
       <c r="R18" t="n">
-        <v>10.5</v>
+        <v>10.4</v>
       </c>
       <c r="S18" t="n">
-        <v>30.7</v>
+        <v>30.9</v>
       </c>
       <c r="T18" t="n">
         <v>41.2</v>
@@ -3632,10 +3699,10 @@
         <v>23.1</v>
       </c>
       <c r="V18" t="n">
-        <v>16.9</v>
+        <v>17</v>
       </c>
       <c r="W18" t="n">
-        <v>9.5</v>
+        <v>9.4</v>
       </c>
       <c r="X18" t="n">
         <v>4.5</v>
@@ -3644,25 +3711,25 @@
         <v>4.8</v>
       </c>
       <c r="Z18" t="n">
-        <v>22.6</v>
+        <v>22.5</v>
       </c>
       <c r="AA18" t="n">
-        <v>20</v>
+        <v>20.2</v>
       </c>
       <c r="AB18" t="n">
         <v>98.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>1</v>
+        <v>1.1</v>
       </c>
       <c r="AD18" t="n">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="AE18" t="n">
         <v>15</v>
       </c>
       <c r="AF18" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="AG18" t="n">
         <v>15</v>
@@ -3686,7 +3753,7 @@
         <v>25</v>
       </c>
       <c r="AN18" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AO18" t="n">
         <v>23</v>
@@ -3698,10 +3765,10 @@
         <v>9</v>
       </c>
       <c r="AR18" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AS18" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AT18" t="n">
         <v>24</v>
@@ -3719,10 +3786,10 @@
         <v>18</v>
       </c>
       <c r="AY18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AZ18" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="BA18" t="n">
         <v>21</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3853,7 +3920,7 @@
         <v>21</v>
       </c>
       <c r="AI19" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AJ19" t="n">
         <v>8</v>
@@ -3868,13 +3935,13 @@
         <v>30</v>
       </c>
       <c r="AN19" t="n">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="AO19" t="n">
+        <v>9</v>
+      </c>
+      <c r="AP19" t="n">
         <v>8</v>
-      </c>
-      <c r="AP19" t="n">
-        <v>6</v>
       </c>
       <c r="AQ19" t="n">
         <v>21</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -3942,133 +4009,133 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="E20" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F20" t="n">
         <v>21</v>
       </c>
       <c r="G20" t="n">
-        <v>0.488</v>
+        <v>0.5</v>
       </c>
       <c r="H20" t="n">
         <v>48.2</v>
       </c>
       <c r="I20" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J20" t="n">
-        <v>83.7</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K20" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.5</v>
       </c>
       <c r="M20" t="n">
-        <v>19.4</v>
+        <v>19.3</v>
       </c>
       <c r="N20" t="n">
-        <v>0.339</v>
+        <v>0.337</v>
       </c>
       <c r="O20" t="n">
         <v>17.3</v>
       </c>
       <c r="P20" t="n">
-        <v>22.7</v>
+        <v>22.9</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.763</v>
+        <v>0.754</v>
       </c>
       <c r="R20" t="n">
-        <v>11.6</v>
+        <v>12</v>
       </c>
       <c r="S20" t="n">
         <v>32</v>
       </c>
       <c r="T20" t="n">
-        <v>43.6</v>
+        <v>44</v>
       </c>
       <c r="U20" t="n">
         <v>21</v>
       </c>
       <c r="V20" t="n">
-        <v>13.2</v>
+        <v>13.1</v>
       </c>
       <c r="W20" t="n">
-        <v>7.1</v>
+        <v>7.2</v>
       </c>
       <c r="X20" t="n">
-        <v>5.5</v>
+        <v>5.8</v>
       </c>
       <c r="Y20" t="n">
-        <v>5.9</v>
+        <v>6</v>
       </c>
       <c r="Z20" t="n">
         <v>19.2</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.7</v>
+        <v>18.9</v>
       </c>
       <c r="AB20" t="n">
         <v>100.4</v>
       </c>
       <c r="AC20" t="n">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>27</v>
+        <v>16</v>
       </c>
       <c r="AE20" t="n">
+        <v>15</v>
+      </c>
+      <c r="AF20" t="n">
         <v>16</v>
-      </c>
-      <c r="AF20" t="n">
-        <v>15</v>
       </c>
       <c r="AG20" t="n">
         <v>16</v>
       </c>
       <c r="AH20" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AJ20" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AK20" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AL20" t="n">
         <v>25</v>
       </c>
       <c r="AM20" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AN20" t="n">
         <v>21</v>
       </c>
       <c r="AO20" t="n">
+        <v>17</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>18</v>
+      </c>
+      <c r="AQ20" t="n">
         <v>15</v>
       </c>
-      <c r="AP20" t="n">
-        <v>19</v>
-      </c>
-      <c r="AQ20" t="n">
-        <v>12</v>
-      </c>
       <c r="AR20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AS20" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AT20" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AU20" t="n">
         <v>18</v>
@@ -4077,16 +4144,16 @@
         <v>7</v>
       </c>
       <c r="AW20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AX20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY20" t="n">
         <v>29</v>
       </c>
       <c r="AZ20" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA20" t="n">
         <v>27</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -4202,7 +4269,7 @@
         <v>-8.4</v>
       </c>
       <c r="AD21" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE21" t="n">
         <v>29</v>
@@ -4214,7 +4281,7 @@
         <v>30</v>
       </c>
       <c r="AH21" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AI21" t="n">
         <v>27</v>
@@ -4229,7 +4296,7 @@
         <v>15</v>
       </c>
       <c r="AM21" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AN21" t="n">
         <v>12</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -4417,7 +4484,7 @@
         <v>27</v>
       </c>
       <c r="AO22" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AP22" t="n">
         <v>12</v>
@@ -4441,7 +4508,7 @@
         <v>23</v>
       </c>
       <c r="AW22" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AX22" t="n">
         <v>5</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -4488,34 +4555,34 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="E23" t="n">
         <v>15</v>
       </c>
       <c r="F23" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G23" t="n">
-        <v>0.341</v>
+        <v>0.333</v>
       </c>
       <c r="H23" t="n">
         <v>48.1</v>
       </c>
       <c r="I23" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J23" t="n">
         <v>81.7</v>
       </c>
       <c r="K23" t="n">
-        <v>0.456</v>
+        <v>0.454</v>
       </c>
       <c r="L23" t="n">
         <v>7.1</v>
       </c>
       <c r="M23" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
         <v>0.368</v>
@@ -4530,40 +4597,40 @@
         <v>0.736</v>
       </c>
       <c r="R23" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="S23" t="n">
-        <v>31.5</v>
+        <v>31.7</v>
       </c>
       <c r="T23" t="n">
-        <v>40.2</v>
+        <v>40.6</v>
       </c>
       <c r="U23" t="n">
         <v>20.4</v>
       </c>
       <c r="V23" t="n">
-        <v>14.7</v>
+        <v>14.8</v>
       </c>
       <c r="W23" t="n">
         <v>7.4</v>
       </c>
       <c r="X23" t="n">
-        <v>3.4</v>
+        <v>3.6</v>
       </c>
       <c r="Y23" t="n">
-        <v>5.4</v>
+        <v>5.7</v>
       </c>
       <c r="Z23" t="n">
-        <v>21.3</v>
+        <v>21.4</v>
       </c>
       <c r="AA23" t="n">
         <v>18.5</v>
       </c>
       <c r="AB23" t="n">
-        <v>95.7</v>
+        <v>95.5</v>
       </c>
       <c r="AC23" t="n">
-        <v>-5.6</v>
+        <v>-5.9</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4572,28 +4639,28 @@
         <v>23</v>
       </c>
       <c r="AF23" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AG23" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AH23" t="n">
         <v>28</v>
       </c>
       <c r="AI23" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ23" t="n">
         <v>22</v>
       </c>
       <c r="AK23" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AL23" t="n">
         <v>18</v>
       </c>
       <c r="AM23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AN23" t="n">
         <v>7</v>
@@ -4611,7 +4678,7 @@
         <v>28</v>
       </c>
       <c r="AS23" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AT23" t="n">
         <v>28</v>
@@ -4623,13 +4690,13 @@
         <v>19</v>
       </c>
       <c r="AW23" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AX23" t="n">
         <v>30</v>
       </c>
       <c r="AY23" t="n">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="AZ23" t="n">
         <v>21</v>
@@ -4638,7 +4705,7 @@
         <v>29</v>
       </c>
       <c r="BB23" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BC23" t="n">
         <v>26</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -4760,7 +4827,7 @@
         <v>28</v>
       </c>
       <c r="AH24" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AI24" t="n">
         <v>30</v>
@@ -4772,7 +4839,7 @@
         <v>30</v>
       </c>
       <c r="AL24" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AM24" t="n">
         <v>11</v>
@@ -4784,7 +4851,7 @@
         <v>21</v>
       </c>
       <c r="AP24" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="AQ24" t="n">
         <v>30</v>
@@ -4811,13 +4878,13 @@
         <v>3</v>
       </c>
       <c r="AY24" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AZ24" t="n">
         <v>22</v>
       </c>
       <c r="BA24" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB24" t="n">
         <v>30</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -4930,10 +4997,10 @@
         <v>2.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AE25" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AF25" t="n">
         <v>12</v>
@@ -4960,7 +5027,7 @@
         <v>3</v>
       </c>
       <c r="AN25" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AO25" t="n">
         <v>18</v>
@@ -4975,10 +5042,10 @@
         <v>18</v>
       </c>
       <c r="AS25" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AT25" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AU25" t="n">
         <v>20</v>
@@ -5005,7 +5072,7 @@
         <v>3</v>
       </c>
       <c r="BC25" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -5034,37 +5101,37 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="E26" t="n">
         <v>31</v>
       </c>
       <c r="F26" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="G26" t="n">
-        <v>0.705</v>
+        <v>0.721</v>
       </c>
       <c r="H26" t="n">
         <v>48.6</v>
       </c>
       <c r="I26" t="n">
-        <v>38.7</v>
+        <v>38.8</v>
       </c>
       <c r="J26" t="n">
         <v>86.59999999999999</v>
       </c>
       <c r="K26" t="n">
-        <v>0.446</v>
+        <v>0.448</v>
       </c>
       <c r="L26" t="n">
         <v>10.2</v>
       </c>
       <c r="M26" t="n">
-        <v>27.5</v>
+        <v>27.4</v>
       </c>
       <c r="N26" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O26" t="n">
         <v>15.5</v>
@@ -5073,10 +5140,10 @@
         <v>19.7</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.787</v>
+        <v>0.788</v>
       </c>
       <c r="R26" t="n">
-        <v>11</v>
+        <v>10.9</v>
       </c>
       <c r="S26" t="n">
         <v>34.8</v>
@@ -5085,49 +5152,49 @@
         <v>45.7</v>
       </c>
       <c r="U26" t="n">
-        <v>22.5</v>
+        <v>22.7</v>
       </c>
       <c r="V26" t="n">
-        <v>13.8</v>
+        <v>13.9</v>
       </c>
       <c r="W26" t="n">
         <v>6.8</v>
       </c>
       <c r="X26" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="Y26" t="n">
         <v>3.5</v>
       </c>
       <c r="Z26" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA26" t="n">
         <v>19.3</v>
       </c>
       <c r="AB26" t="n">
-        <v>103</v>
+        <v>103.3</v>
       </c>
       <c r="AC26" t="n">
-        <v>5.8</v>
+        <v>6</v>
       </c>
       <c r="AD26" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="AE26" t="n">
         <v>3</v>
       </c>
       <c r="AF26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AG26" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AI26" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AJ26" t="n">
         <v>2</v>
@@ -5136,7 +5203,7 @@
         <v>18</v>
       </c>
       <c r="AL26" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AM26" t="n">
         <v>2</v>
@@ -5148,7 +5215,7 @@
         <v>27</v>
       </c>
       <c r="AP26" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AQ26" t="n">
         <v>2</v>
@@ -5175,16 +5242,16 @@
         <v>8</v>
       </c>
       <c r="AY26" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AZ26" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA26" t="n">
+        <v>24</v>
+      </c>
+      <c r="BB26" t="n">
         <v>6</v>
-      </c>
-      <c r="BA26" t="n">
-        <v>25</v>
-      </c>
-      <c r="BB26" t="n">
-        <v>7</v>
       </c>
       <c r="BC26" t="n">
         <v>5</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -5366,10 +5433,10 @@
         <v>1</v>
       </c>
       <c r="BB27" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BC27" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -5401,40 +5468,40 @@
         <v>43</v>
       </c>
       <c r="E28" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="F28" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="G28" t="n">
-        <v>0.605</v>
+        <v>0.628</v>
       </c>
       <c r="H28" t="n">
         <v>49</v>
       </c>
       <c r="I28" t="n">
-        <v>38.2</v>
+        <v>38.3</v>
       </c>
       <c r="J28" t="n">
-        <v>83.40000000000001</v>
+        <v>83.09999999999999</v>
       </c>
       <c r="K28" t="n">
-        <v>0.458</v>
+        <v>0.461</v>
       </c>
       <c r="L28" t="n">
-        <v>8.199999999999999</v>
+        <v>8.4</v>
       </c>
       <c r="M28" t="n">
+        <v>22.3</v>
+      </c>
+      <c r="N28" t="n">
+        <v>0.376</v>
+      </c>
+      <c r="O28" t="n">
+        <v>16.9</v>
+      </c>
+      <c r="P28" t="n">
         <v>22.1</v>
-      </c>
-      <c r="N28" t="n">
-        <v>0.371</v>
-      </c>
-      <c r="O28" t="n">
-        <v>17</v>
-      </c>
-      <c r="P28" t="n">
-        <v>22.2</v>
       </c>
       <c r="Q28" t="n">
         <v>0.764</v>
@@ -5449,10 +5516,10 @@
         <v>43.8</v>
       </c>
       <c r="U28" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="V28" t="n">
-        <v>14.4</v>
+        <v>14.6</v>
       </c>
       <c r="W28" t="n">
         <v>7.5</v>
@@ -5461,37 +5528,37 @@
         <v>5.5</v>
       </c>
       <c r="Y28" t="n">
-        <v>4.9</v>
+        <v>4.7</v>
       </c>
       <c r="Z28" t="n">
-        <v>19.8</v>
+        <v>19.7</v>
       </c>
       <c r="AA28" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AB28" t="n">
-        <v>101.5</v>
+        <v>102</v>
       </c>
       <c r="AC28" t="n">
-        <v>3.8</v>
+        <v>4.4</v>
       </c>
       <c r="AD28" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE28" t="n">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="AF28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AG28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AH28" t="n">
         <v>2</v>
       </c>
       <c r="AI28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AJ28" t="n">
         <v>16</v>
@@ -5500,7 +5567,7 @@
         <v>9</v>
       </c>
       <c r="AL28" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AM28" t="n">
         <v>15</v>
@@ -5509,7 +5576,7 @@
         <v>5</v>
       </c>
       <c r="AO28" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AP28" t="n">
         <v>20</v>
@@ -5524,31 +5591,31 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AU28" t="n">
         <v>6</v>
       </c>
       <c r="AV28" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AW28" t="n">
         <v>15</v>
       </c>
       <c r="AX28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY28" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AZ28" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="BB28" t="n">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="BC28" t="n">
         <v>7</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -5661,7 +5728,7 @@
         <v>16</v>
       </c>
       <c r="AE29" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF29" t="n">
         <v>9</v>
@@ -5673,13 +5740,13 @@
         <v>11</v>
       </c>
       <c r="AI29" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AJ29" t="n">
         <v>11</v>
       </c>
       <c r="AK29" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AL29" t="n">
         <v>8</v>
@@ -5700,7 +5767,7 @@
         <v>4</v>
       </c>
       <c r="AR29" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AS29" t="n">
         <v>25</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -5762,46 +5829,46 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E30" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F30" t="n">
         <v>28</v>
       </c>
       <c r="G30" t="n">
-        <v>0.349</v>
+        <v>0.333</v>
       </c>
       <c r="H30" t="n">
         <v>48</v>
       </c>
       <c r="I30" t="n">
-        <v>35.5</v>
+        <v>35.6</v>
       </c>
       <c r="J30" t="n">
-        <v>78.90000000000001</v>
+        <v>79.09999999999999</v>
       </c>
       <c r="K30" t="n">
         <v>0.45</v>
       </c>
       <c r="L30" t="n">
-        <v>7.1</v>
+        <v>6.9</v>
       </c>
       <c r="M30" t="n">
-        <v>20.8</v>
+        <v>20.6</v>
       </c>
       <c r="N30" t="n">
-        <v>0.339</v>
+        <v>0.335</v>
       </c>
       <c r="O30" t="n">
-        <v>17.5</v>
+        <v>17.4</v>
       </c>
       <c r="P30" t="n">
-        <v>23.2</v>
+        <v>23.1</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.753</v>
+        <v>0.751</v>
       </c>
       <c r="R30" t="n">
         <v>11.6</v>
@@ -5813,37 +5880,37 @@
         <v>42.4</v>
       </c>
       <c r="U30" t="n">
-        <v>20.4</v>
+        <v>20.3</v>
       </c>
       <c r="V30" t="n">
-        <v>15.4</v>
+        <v>15.3</v>
       </c>
       <c r="W30" t="n">
         <v>6.8</v>
       </c>
       <c r="X30" t="n">
-        <v>5.8</v>
+        <v>5.9</v>
       </c>
       <c r="Y30" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z30" t="n">
-        <v>18.8</v>
+        <v>18.9</v>
       </c>
       <c r="AA30" t="n">
-        <v>19.4</v>
+        <v>19.2</v>
       </c>
       <c r="AB30" t="n">
-        <v>95.5</v>
+        <v>95.40000000000001</v>
       </c>
       <c r="AC30" t="n">
-        <v>-3.5</v>
+        <v>-3.7</v>
       </c>
       <c r="AD30" t="n">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="AE30" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AF30" t="n">
         <v>24</v>
@@ -5864,13 +5931,13 @@
         <v>17</v>
       </c>
       <c r="AL30" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AM30" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AN30" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AO30" t="n">
         <v>14</v>
@@ -5879,16 +5946,16 @@
         <v>15</v>
       </c>
       <c r="AQ30" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AR30" t="n">
         <v>8</v>
       </c>
       <c r="AS30" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AT30" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AU30" t="n">
         <v>25</v>
@@ -5903,16 +5970,16 @@
         <v>4</v>
       </c>
       <c r="AY30" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ30" t="n">
         <v>5</v>
       </c>
       <c r="BA30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BB30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC30" t="n">
         <v>24</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
@@ -6022,7 +6089,7 @@
         <v>2.5</v>
       </c>
       <c r="AD31" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AE31" t="n">
         <v>6</v>
@@ -6034,16 +6101,16 @@
         <v>6</v>
       </c>
       <c r="AH31" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AI31" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AJ31" t="n">
         <v>20</v>
       </c>
       <c r="AK31" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AL31" t="n">
         <v>26</v>
@@ -6052,7 +6119,7 @@
         <v>28</v>
       </c>
       <c r="AN31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AO31" t="n">
         <v>26</v>
@@ -6073,7 +6140,7 @@
         <v>12</v>
       </c>
       <c r="AU31" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV31" t="n">
         <v>21</v>
@@ -6091,13 +6158,13 @@
         <v>18</v>
       </c>
       <c r="BA31" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="BB31" t="n">
         <v>19</v>
       </c>
       <c r="BC31" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="BD31" t="n">
         <v>10</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>1-22-2014-15</t>
+          <t>2015-01-22</t>
         </is>
       </c>
     </row>
